--- a/stock_historical_data/1d/VOEPL.BO.xlsx
+++ b/stock_historical_data/1d/VOEPL.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,6 +518,11 @@
           <t>two_line_structure</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -568,6 +573,9 @@
       <c r="P2" t="n">
         <v>0</v>
       </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -618,6 +626,9 @@
       <c r="P3" t="n">
         <v>0</v>
       </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -668,6 +679,9 @@
       <c r="P4" t="n">
         <v>0</v>
       </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -718,6 +732,9 @@
       <c r="P5" t="n">
         <v>0</v>
       </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -768,6 +785,9 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -818,6 +838,9 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -868,6 +891,9 @@
       <c r="P8" t="n">
         <v>0</v>
       </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -918,6 +944,9 @@
       <c r="P9" t="n">
         <v>0</v>
       </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -968,6 +997,9 @@
       <c r="P10" t="n">
         <v>0</v>
       </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1018,6 +1050,264 @@
       <c r="P11" t="n">
         <v>0</v>
       </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B12" t="n">
+        <v>595.5499877929688</v>
+      </c>
+      <c r="C12" t="n">
+        <v>617</v>
+      </c>
+      <c r="D12" t="n">
+        <v>589.5</v>
+      </c>
+      <c r="E12" t="n">
+        <v>589.5</v>
+      </c>
+      <c r="F12" t="n">
+        <v>36000</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>13</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45671</v>
+      </c>
+      <c r="B13" t="n">
+        <v>586.5999755859375</v>
+      </c>
+      <c r="C13" t="n">
+        <v>607.4500122070312</v>
+      </c>
+      <c r="D13" t="n">
+        <v>568.0499877929688</v>
+      </c>
+      <c r="E13" t="n">
+        <v>586</v>
+      </c>
+      <c r="F13" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>14</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45672</v>
+      </c>
+      <c r="B14" t="n">
+        <v>573.5</v>
+      </c>
+      <c r="C14" t="n">
+        <v>605</v>
+      </c>
+      <c r="D14" t="n">
+        <v>573.25</v>
+      </c>
+      <c r="E14" t="n">
+        <v>600</v>
+      </c>
+      <c r="F14" t="n">
+        <v>13500</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>15</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45673</v>
+      </c>
+      <c r="B15" t="n">
+        <v>605</v>
+      </c>
+      <c r="C15" t="n">
+        <v>620</v>
+      </c>
+      <c r="D15" t="n">
+        <v>595</v>
+      </c>
+      <c r="E15" t="n">
+        <v>615.4000244140625</v>
+      </c>
+      <c r="F15" t="n">
+        <v>34500</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>16</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45674</v>
+      </c>
+      <c r="B16" t="n">
+        <v>623.9500122070312</v>
+      </c>
+      <c r="C16" t="n">
+        <v>624</v>
+      </c>
+      <c r="D16" t="n">
+        <v>608.5</v>
+      </c>
+      <c r="E16" t="n">
+        <v>623.8499755859375</v>
+      </c>
+      <c r="F16" t="n">
+        <v>14000</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>17</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/VOEPL.BO.xlsx
+++ b/stock_historical_data/1d/VOEPL.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,9 @@
       <c r="P12" t="n">
         <v>0</v>
       </c>
-      <c r="Q12" t="inlineStr"/>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1154,7 +1156,9 @@
       <c r="P13" t="n">
         <v>0</v>
       </c>
-      <c r="Q13" t="inlineStr"/>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1205,7 +1209,9 @@
       <c r="P14" t="n">
         <v>0</v>
       </c>
-      <c r="Q14" t="inlineStr"/>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1256,7 +1262,9 @@
       <c r="P15" t="n">
         <v>0</v>
       </c>
-      <c r="Q15" t="inlineStr"/>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1307,7 +1315,264 @@
       <c r="P16" t="n">
         <v>0</v>
       </c>
-      <c r="Q16" t="inlineStr"/>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B17" t="n">
+        <v>636</v>
+      </c>
+      <c r="C17" t="n">
+        <v>655</v>
+      </c>
+      <c r="D17" t="n">
+        <v>615</v>
+      </c>
+      <c r="E17" t="n">
+        <v>655</v>
+      </c>
+      <c r="F17" t="n">
+        <v>55000</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>20</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45678</v>
+      </c>
+      <c r="B18" t="n">
+        <v>685</v>
+      </c>
+      <c r="C18" t="n">
+        <v>685</v>
+      </c>
+      <c r="D18" t="n">
+        <v>646</v>
+      </c>
+      <c r="E18" t="n">
+        <v>652.1500244140625</v>
+      </c>
+      <c r="F18" t="n">
+        <v>32000</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>21</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45679</v>
+      </c>
+      <c r="B19" t="n">
+        <v>629.75</v>
+      </c>
+      <c r="C19" t="n">
+        <v>635</v>
+      </c>
+      <c r="D19" t="n">
+        <v>619.5499877929688</v>
+      </c>
+      <c r="E19" t="n">
+        <v>623.0999755859375</v>
+      </c>
+      <c r="F19" t="n">
+        <v>21500</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>22</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45680</v>
+      </c>
+      <c r="B20" t="n">
+        <v>621</v>
+      </c>
+      <c r="C20" t="n">
+        <v>621</v>
+      </c>
+      <c r="D20" t="n">
+        <v>591.9500122070312</v>
+      </c>
+      <c r="E20" t="n">
+        <v>591.9500122070312</v>
+      </c>
+      <c r="F20" t="n">
+        <v>30500</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>23</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45681</v>
+      </c>
+      <c r="B21" t="n">
+        <v>575</v>
+      </c>
+      <c r="C21" t="n">
+        <v>582</v>
+      </c>
+      <c r="D21" t="n">
+        <v>562.4000244140625</v>
+      </c>
+      <c r="E21" t="n">
+        <v>562.4000244140625</v>
+      </c>
+      <c r="F21" t="n">
+        <v>46500</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>24</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/VOEPL.BO.xlsx
+++ b/stock_historical_data/1d/VOEPL.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1368,7 +1368,9 @@
       <c r="P17" t="n">
         <v>0</v>
       </c>
-      <c r="Q17" t="inlineStr"/>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1419,7 +1421,9 @@
       <c r="P18" t="n">
         <v>0</v>
       </c>
-      <c r="Q18" t="inlineStr"/>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1470,7 +1474,9 @@
       <c r="P19" t="n">
         <v>0</v>
       </c>
-      <c r="Q19" t="inlineStr"/>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1521,7 +1527,9 @@
       <c r="P20" t="n">
         <v>0</v>
       </c>
-      <c r="Q20" t="inlineStr"/>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1572,7 +1580,264 @@
       <c r="P21" t="n">
         <v>0</v>
       </c>
-      <c r="Q21" t="inlineStr"/>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B22" t="n">
+        <v>535</v>
+      </c>
+      <c r="C22" t="n">
+        <v>535</v>
+      </c>
+      <c r="D22" t="n">
+        <v>534.2999877929688</v>
+      </c>
+      <c r="E22" t="n">
+        <v>534.2999877929688</v>
+      </c>
+      <c r="F22" t="n">
+        <v>11500</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>27</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45685</v>
+      </c>
+      <c r="B23" t="n">
+        <v>508</v>
+      </c>
+      <c r="C23" t="n">
+        <v>509</v>
+      </c>
+      <c r="D23" t="n">
+        <v>507.6000061035156</v>
+      </c>
+      <c r="E23" t="n">
+        <v>507.6000061035156</v>
+      </c>
+      <c r="F23" t="n">
+        <v>17500</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>28</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45686</v>
+      </c>
+      <c r="B24" t="n">
+        <v>482.5</v>
+      </c>
+      <c r="C24" t="n">
+        <v>530</v>
+      </c>
+      <c r="D24" t="n">
+        <v>482.25</v>
+      </c>
+      <c r="E24" t="n">
+        <v>525</v>
+      </c>
+      <c r="F24" t="n">
+        <v>47000</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>29</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45687</v>
+      </c>
+      <c r="B25" t="n">
+        <v>535</v>
+      </c>
+      <c r="C25" t="n">
+        <v>535</v>
+      </c>
+      <c r="D25" t="n">
+        <v>498.75</v>
+      </c>
+      <c r="E25" t="n">
+        <v>498.75</v>
+      </c>
+      <c r="F25" t="n">
+        <v>28000</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>30</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45688</v>
+      </c>
+      <c r="B26" t="n">
+        <v>499</v>
+      </c>
+      <c r="C26" t="n">
+        <v>517</v>
+      </c>
+      <c r="D26" t="n">
+        <v>488.0499877929688</v>
+      </c>
+      <c r="E26" t="n">
+        <v>509</v>
+      </c>
+      <c r="F26" t="n">
+        <v>30000</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>31</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/VOEPL.BO.xlsx
+++ b/stock_historical_data/1d/VOEPL.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q578"/>
+  <dimension ref="A1:Q583"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26679,6 +26679,231 @@
       <c r="P578" t="inlineStr"/>
       <c r="Q578" t="inlineStr"/>
     </row>
+    <row r="579">
+      <c r="A579" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B579" t="n">
+        <v>487</v>
+      </c>
+      <c r="C579" t="n">
+        <v>509.7999877929688</v>
+      </c>
+      <c r="D579" t="n">
+        <v>477</v>
+      </c>
+      <c r="E579" t="n">
+        <v>493.8999938964844</v>
+      </c>
+      <c r="F579" t="n">
+        <v>31000</v>
+      </c>
+      <c r="G579" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H579" t="n">
+        <v>2</v>
+      </c>
+      <c r="I579" t="n">
+        <v>10</v>
+      </c>
+      <c r="J579" t="n">
+        <v>0</v>
+      </c>
+      <c r="K579" t="n">
+        <v>0</v>
+      </c>
+      <c r="L579" t="n">
+        <v>0</v>
+      </c>
+      <c r="M579" t="n">
+        <v>7</v>
+      </c>
+      <c r="N579" t="inlineStr"/>
+      <c r="O579" t="inlineStr"/>
+      <c r="P579" t="inlineStr"/>
+      <c r="Q579" t="inlineStr"/>
+    </row>
+    <row r="580">
+      <c r="A580" s="2" t="n">
+        <v>45699</v>
+      </c>
+      <c r="B580" t="n">
+        <v>485</v>
+      </c>
+      <c r="C580" t="n">
+        <v>490</v>
+      </c>
+      <c r="D580" t="n">
+        <v>469.25</v>
+      </c>
+      <c r="E580" t="n">
+        <v>470.1499938964844</v>
+      </c>
+      <c r="F580" t="n">
+        <v>24000</v>
+      </c>
+      <c r="G580" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H580" t="n">
+        <v>2</v>
+      </c>
+      <c r="I580" t="n">
+        <v>11</v>
+      </c>
+      <c r="J580" t="n">
+        <v>0</v>
+      </c>
+      <c r="K580" t="n">
+        <v>0</v>
+      </c>
+      <c r="L580" t="n">
+        <v>0</v>
+      </c>
+      <c r="M580" t="n">
+        <v>7</v>
+      </c>
+      <c r="N580" t="inlineStr"/>
+      <c r="O580" t="inlineStr"/>
+      <c r="P580" t="inlineStr"/>
+      <c r="Q580" t="inlineStr"/>
+    </row>
+    <row r="581">
+      <c r="A581" s="2" t="n">
+        <v>45700</v>
+      </c>
+      <c r="B581" t="n">
+        <v>477</v>
+      </c>
+      <c r="C581" t="n">
+        <v>493.6499938964844</v>
+      </c>
+      <c r="D581" t="n">
+        <v>446.6499938964844</v>
+      </c>
+      <c r="E581" t="n">
+        <v>475.0499877929688</v>
+      </c>
+      <c r="F581" t="n">
+        <v>53000</v>
+      </c>
+      <c r="G581" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H581" t="n">
+        <v>2</v>
+      </c>
+      <c r="I581" t="n">
+        <v>12</v>
+      </c>
+      <c r="J581" t="n">
+        <v>0</v>
+      </c>
+      <c r="K581" t="n">
+        <v>0</v>
+      </c>
+      <c r="L581" t="n">
+        <v>0</v>
+      </c>
+      <c r="M581" t="n">
+        <v>7</v>
+      </c>
+      <c r="N581" t="inlineStr"/>
+      <c r="O581" t="inlineStr"/>
+      <c r="P581" t="inlineStr"/>
+      <c r="Q581" t="inlineStr"/>
+    </row>
+    <row r="582">
+      <c r="A582" s="2" t="n">
+        <v>45701</v>
+      </c>
+      <c r="B582" t="n">
+        <v>470.0499877929688</v>
+      </c>
+      <c r="C582" t="n">
+        <v>493</v>
+      </c>
+      <c r="D582" t="n">
+        <v>470</v>
+      </c>
+      <c r="E582" t="n">
+        <v>490.7999877929688</v>
+      </c>
+      <c r="F582" t="n">
+        <v>21000</v>
+      </c>
+      <c r="G582" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H582" t="n">
+        <v>2</v>
+      </c>
+      <c r="I582" t="n">
+        <v>13</v>
+      </c>
+      <c r="J582" t="n">
+        <v>0</v>
+      </c>
+      <c r="K582" t="n">
+        <v>0</v>
+      </c>
+      <c r="L582" t="n">
+        <v>0</v>
+      </c>
+      <c r="M582" t="n">
+        <v>7</v>
+      </c>
+      <c r="N582" t="inlineStr"/>
+      <c r="O582" t="inlineStr"/>
+      <c r="P582" t="inlineStr"/>
+      <c r="Q582" t="inlineStr"/>
+    </row>
+    <row r="583">
+      <c r="A583" s="2" t="n">
+        <v>45702</v>
+      </c>
+      <c r="B583" t="n">
+        <v>479</v>
+      </c>
+      <c r="C583" t="n">
+        <v>489</v>
+      </c>
+      <c r="D583" t="n">
+        <v>467</v>
+      </c>
+      <c r="E583" t="n">
+        <v>467</v>
+      </c>
+      <c r="F583" t="n">
+        <v>24500</v>
+      </c>
+      <c r="G583" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H583" t="n">
+        <v>2</v>
+      </c>
+      <c r="I583" t="n">
+        <v>14</v>
+      </c>
+      <c r="J583" t="n">
+        <v>0</v>
+      </c>
+      <c r="K583" t="n">
+        <v>0</v>
+      </c>
+      <c r="L583" t="n">
+        <v>0</v>
+      </c>
+      <c r="M583" t="n">
+        <v>7</v>
+      </c>
+      <c r="N583" t="inlineStr"/>
+      <c r="O583" t="inlineStr"/>
+      <c r="P583" t="inlineStr"/>
+      <c r="Q583" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/VOEPL.BO.xlsx
+++ b/stock_historical_data/1d/VOEPL.BO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q583"/>
+  <dimension ref="A1:Q592"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26904,6 +26904,411 @@
       <c r="P583" t="inlineStr"/>
       <c r="Q583" t="inlineStr"/>
     </row>
+    <row r="584">
+      <c r="A584" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B584" t="n">
+        <v>470</v>
+      </c>
+      <c r="C584" t="n">
+        <v>482.1000061035156</v>
+      </c>
+      <c r="D584" t="n">
+        <v>444</v>
+      </c>
+      <c r="E584" t="n">
+        <v>464.5</v>
+      </c>
+      <c r="F584" t="n">
+        <v>24000</v>
+      </c>
+      <c r="G584" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H584" t="n">
+        <v>2</v>
+      </c>
+      <c r="I584" t="n">
+        <v>17</v>
+      </c>
+      <c r="J584" t="n">
+        <v>0</v>
+      </c>
+      <c r="K584" t="n">
+        <v>0</v>
+      </c>
+      <c r="L584" t="n">
+        <v>0</v>
+      </c>
+      <c r="M584" t="n">
+        <v>8</v>
+      </c>
+      <c r="N584" t="inlineStr"/>
+      <c r="O584" t="inlineStr"/>
+      <c r="P584" t="inlineStr"/>
+      <c r="Q584" t="inlineStr"/>
+    </row>
+    <row r="585">
+      <c r="A585" s="2" t="n">
+        <v>45706</v>
+      </c>
+      <c r="B585" t="n">
+        <v>465</v>
+      </c>
+      <c r="C585" t="n">
+        <v>465</v>
+      </c>
+      <c r="D585" t="n">
+        <v>441.2999877929688</v>
+      </c>
+      <c r="E585" t="n">
+        <v>448.1000061035156</v>
+      </c>
+      <c r="F585" t="n">
+        <v>34500</v>
+      </c>
+      <c r="G585" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H585" t="n">
+        <v>2</v>
+      </c>
+      <c r="I585" t="n">
+        <v>18</v>
+      </c>
+      <c r="J585" t="n">
+        <v>0</v>
+      </c>
+      <c r="K585" t="n">
+        <v>0</v>
+      </c>
+      <c r="L585" t="n">
+        <v>0</v>
+      </c>
+      <c r="M585" t="n">
+        <v>8</v>
+      </c>
+      <c r="N585" t="inlineStr"/>
+      <c r="O585" t="inlineStr"/>
+      <c r="P585" t="inlineStr"/>
+      <c r="Q585" t="inlineStr"/>
+    </row>
+    <row r="586">
+      <c r="A586" s="2" t="n">
+        <v>45707</v>
+      </c>
+      <c r="B586" t="n">
+        <v>449</v>
+      </c>
+      <c r="C586" t="n">
+        <v>470.5</v>
+      </c>
+      <c r="D586" t="n">
+        <v>448</v>
+      </c>
+      <c r="E586" t="n">
+        <v>470.5</v>
+      </c>
+      <c r="F586" t="n">
+        <v>20500</v>
+      </c>
+      <c r="G586" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H586" t="n">
+        <v>2</v>
+      </c>
+      <c r="I586" t="n">
+        <v>19</v>
+      </c>
+      <c r="J586" t="n">
+        <v>0</v>
+      </c>
+      <c r="K586" t="n">
+        <v>0</v>
+      </c>
+      <c r="L586" t="n">
+        <v>0</v>
+      </c>
+      <c r="M586" t="n">
+        <v>8</v>
+      </c>
+      <c r="N586" t="inlineStr"/>
+      <c r="O586" t="inlineStr"/>
+      <c r="P586" t="inlineStr"/>
+      <c r="Q586" t="inlineStr"/>
+    </row>
+    <row r="587">
+      <c r="A587" s="2" t="n">
+        <v>45708</v>
+      </c>
+      <c r="B587" t="n">
+        <v>489.8999938964844</v>
+      </c>
+      <c r="C587" t="n">
+        <v>494</v>
+      </c>
+      <c r="D587" t="n">
+        <v>480</v>
+      </c>
+      <c r="E587" t="n">
+        <v>494</v>
+      </c>
+      <c r="F587" t="n">
+        <v>29000</v>
+      </c>
+      <c r="G587" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H587" t="n">
+        <v>2</v>
+      </c>
+      <c r="I587" t="n">
+        <v>20</v>
+      </c>
+      <c r="J587" t="n">
+        <v>0</v>
+      </c>
+      <c r="K587" t="n">
+        <v>0</v>
+      </c>
+      <c r="L587" t="n">
+        <v>0</v>
+      </c>
+      <c r="M587" t="n">
+        <v>8</v>
+      </c>
+      <c r="N587" t="inlineStr"/>
+      <c r="O587" t="inlineStr"/>
+      <c r="P587" t="inlineStr"/>
+      <c r="Q587" t="inlineStr"/>
+    </row>
+    <row r="588">
+      <c r="A588" s="2" t="n">
+        <v>45709</v>
+      </c>
+      <c r="B588" t="n">
+        <v>517.7000122070312</v>
+      </c>
+      <c r="C588" t="n">
+        <v>518.7000122070312</v>
+      </c>
+      <c r="D588" t="n">
+        <v>480</v>
+      </c>
+      <c r="E588" t="n">
+        <v>495.6499938964844</v>
+      </c>
+      <c r="F588" t="n">
+        <v>86000</v>
+      </c>
+      <c r="G588" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H588" t="n">
+        <v>2</v>
+      </c>
+      <c r="I588" t="n">
+        <v>21</v>
+      </c>
+      <c r="J588" t="n">
+        <v>0</v>
+      </c>
+      <c r="K588" t="n">
+        <v>0</v>
+      </c>
+      <c r="L588" t="n">
+        <v>0</v>
+      </c>
+      <c r="M588" t="n">
+        <v>8</v>
+      </c>
+      <c r="N588" t="inlineStr"/>
+      <c r="O588" t="inlineStr"/>
+      <c r="P588" t="inlineStr"/>
+      <c r="Q588" t="inlineStr"/>
+    </row>
+    <row r="589">
+      <c r="A589" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B589" t="n">
+        <v>477.75</v>
+      </c>
+      <c r="C589" t="n">
+        <v>520.4000244140625</v>
+      </c>
+      <c r="D589" t="n">
+        <v>477.75</v>
+      </c>
+      <c r="E589" t="n">
+        <v>514.0499877929688</v>
+      </c>
+      <c r="F589" t="n">
+        <v>35000</v>
+      </c>
+      <c r="G589" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H589" t="n">
+        <v>2</v>
+      </c>
+      <c r="I589" t="n">
+        <v>24</v>
+      </c>
+      <c r="J589" t="n">
+        <v>0</v>
+      </c>
+      <c r="K589" t="n">
+        <v>0</v>
+      </c>
+      <c r="L589" t="n">
+        <v>0</v>
+      </c>
+      <c r="M589" t="n">
+        <v>9</v>
+      </c>
+      <c r="N589" t="inlineStr"/>
+      <c r="O589" t="inlineStr"/>
+      <c r="P589" t="inlineStr"/>
+      <c r="Q589" t="inlineStr"/>
+    </row>
+    <row r="590">
+      <c r="A590" s="2" t="n">
+        <v>45713</v>
+      </c>
+      <c r="B590" t="n">
+        <v>523</v>
+      </c>
+      <c r="C590" t="n">
+        <v>539.75</v>
+      </c>
+      <c r="D590" t="n">
+        <v>514.5499877929688</v>
+      </c>
+      <c r="E590" t="n">
+        <v>539.75</v>
+      </c>
+      <c r="F590" t="n">
+        <v>15500</v>
+      </c>
+      <c r="G590" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H590" t="n">
+        <v>2</v>
+      </c>
+      <c r="I590" t="n">
+        <v>25</v>
+      </c>
+      <c r="J590" t="n">
+        <v>0</v>
+      </c>
+      <c r="K590" t="n">
+        <v>0</v>
+      </c>
+      <c r="L590" t="n">
+        <v>0</v>
+      </c>
+      <c r="M590" t="n">
+        <v>9</v>
+      </c>
+      <c r="N590" t="inlineStr"/>
+      <c r="O590" t="inlineStr"/>
+      <c r="P590" t="inlineStr"/>
+      <c r="Q590" t="inlineStr"/>
+    </row>
+    <row r="591">
+      <c r="A591" s="2" t="n">
+        <v>45715</v>
+      </c>
+      <c r="B591" t="n">
+        <v>545</v>
+      </c>
+      <c r="C591" t="n">
+        <v>566.7000122070312</v>
+      </c>
+      <c r="D591" t="n">
+        <v>545</v>
+      </c>
+      <c r="E591" t="n">
+        <v>561</v>
+      </c>
+      <c r="F591" t="n">
+        <v>37500</v>
+      </c>
+      <c r="G591" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H591" t="n">
+        <v>2</v>
+      </c>
+      <c r="I591" t="n">
+        <v>27</v>
+      </c>
+      <c r="J591" t="n">
+        <v>0</v>
+      </c>
+      <c r="K591" t="n">
+        <v>0</v>
+      </c>
+      <c r="L591" t="n">
+        <v>0</v>
+      </c>
+      <c r="M591" t="n">
+        <v>9</v>
+      </c>
+      <c r="N591" t="inlineStr"/>
+      <c r="O591" t="inlineStr"/>
+      <c r="P591" t="inlineStr"/>
+      <c r="Q591" t="inlineStr"/>
+    </row>
+    <row r="592">
+      <c r="A592" s="2" t="n">
+        <v>45716</v>
+      </c>
+      <c r="B592" t="n">
+        <v>545</v>
+      </c>
+      <c r="C592" t="n">
+        <v>554</v>
+      </c>
+      <c r="D592" t="n">
+        <v>532.9500122070312</v>
+      </c>
+      <c r="E592" t="n">
+        <v>537.5999755859375</v>
+      </c>
+      <c r="F592" t="n">
+        <v>25500</v>
+      </c>
+      <c r="G592" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H592" t="n">
+        <v>2</v>
+      </c>
+      <c r="I592" t="n">
+        <v>28</v>
+      </c>
+      <c r="J592" t="n">
+        <v>0</v>
+      </c>
+      <c r="K592" t="n">
+        <v>0</v>
+      </c>
+      <c r="L592" t="n">
+        <v>0</v>
+      </c>
+      <c r="M592" t="n">
+        <v>9</v>
+      </c>
+      <c r="N592" t="inlineStr"/>
+      <c r="O592" t="inlineStr"/>
+      <c r="P592" t="inlineStr"/>
+      <c r="Q592" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/VOEPL.BO.xlsx
+++ b/stock_historical_data/1d/VOEPL.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q592"/>
+  <dimension ref="A1:Q601"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27309,6 +27309,411 @@
       <c r="P592" t="inlineStr"/>
       <c r="Q592" t="inlineStr"/>
     </row>
+    <row r="593">
+      <c r="A593" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B593" t="n">
+        <v>537.5999755859375</v>
+      </c>
+      <c r="C593" t="n">
+        <v>549.5</v>
+      </c>
+      <c r="D593" t="n">
+        <v>537.5999755859375</v>
+      </c>
+      <c r="E593" t="n">
+        <v>545.4000244140625</v>
+      </c>
+      <c r="F593" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G593" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H593" t="n">
+        <v>3</v>
+      </c>
+      <c r="I593" t="n">
+        <v>3</v>
+      </c>
+      <c r="J593" t="n">
+        <v>0</v>
+      </c>
+      <c r="K593" t="n">
+        <v>0</v>
+      </c>
+      <c r="L593" t="n">
+        <v>0</v>
+      </c>
+      <c r="M593" t="n">
+        <v>10</v>
+      </c>
+      <c r="N593" t="inlineStr"/>
+      <c r="O593" t="inlineStr"/>
+      <c r="P593" t="inlineStr"/>
+      <c r="Q593" t="inlineStr"/>
+    </row>
+    <row r="594">
+      <c r="A594" s="2" t="n">
+        <v>45720</v>
+      </c>
+      <c r="B594" t="n">
+        <v>518.1500244140625</v>
+      </c>
+      <c r="C594" t="n">
+        <v>547.5</v>
+      </c>
+      <c r="D594" t="n">
+        <v>518.1500244140625</v>
+      </c>
+      <c r="E594" t="n">
+        <v>525.0999755859375</v>
+      </c>
+      <c r="F594" t="n">
+        <v>40000</v>
+      </c>
+      <c r="G594" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H594" t="n">
+        <v>3</v>
+      </c>
+      <c r="I594" t="n">
+        <v>4</v>
+      </c>
+      <c r="J594" t="n">
+        <v>0</v>
+      </c>
+      <c r="K594" t="n">
+        <v>0</v>
+      </c>
+      <c r="L594" t="n">
+        <v>0</v>
+      </c>
+      <c r="M594" t="n">
+        <v>10</v>
+      </c>
+      <c r="N594" t="inlineStr"/>
+      <c r="O594" t="inlineStr"/>
+      <c r="P594" t="inlineStr"/>
+      <c r="Q594" t="inlineStr"/>
+    </row>
+    <row r="595">
+      <c r="A595" s="2" t="n">
+        <v>45721</v>
+      </c>
+      <c r="B595" t="n">
+        <v>539</v>
+      </c>
+      <c r="C595" t="n">
+        <v>551.3499755859375</v>
+      </c>
+      <c r="D595" t="n">
+        <v>532</v>
+      </c>
+      <c r="E595" t="n">
+        <v>548.9500122070312</v>
+      </c>
+      <c r="F595" t="n">
+        <v>45500</v>
+      </c>
+      <c r="G595" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H595" t="n">
+        <v>3</v>
+      </c>
+      <c r="I595" t="n">
+        <v>5</v>
+      </c>
+      <c r="J595" t="n">
+        <v>0</v>
+      </c>
+      <c r="K595" t="n">
+        <v>0</v>
+      </c>
+      <c r="L595" t="n">
+        <v>0</v>
+      </c>
+      <c r="M595" t="n">
+        <v>10</v>
+      </c>
+      <c r="N595" t="inlineStr"/>
+      <c r="O595" t="inlineStr"/>
+      <c r="P595" t="inlineStr"/>
+      <c r="Q595" t="inlineStr"/>
+    </row>
+    <row r="596">
+      <c r="A596" s="2" t="n">
+        <v>45722</v>
+      </c>
+      <c r="B596" t="n">
+        <v>560</v>
+      </c>
+      <c r="C596" t="n">
+        <v>575.7999877929688</v>
+      </c>
+      <c r="D596" t="n">
+        <v>550</v>
+      </c>
+      <c r="E596" t="n">
+        <v>572.0499877929688</v>
+      </c>
+      <c r="F596" t="n">
+        <v>20500</v>
+      </c>
+      <c r="G596" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H596" t="n">
+        <v>3</v>
+      </c>
+      <c r="I596" t="n">
+        <v>6</v>
+      </c>
+      <c r="J596" t="n">
+        <v>0</v>
+      </c>
+      <c r="K596" t="n">
+        <v>0</v>
+      </c>
+      <c r="L596" t="n">
+        <v>0</v>
+      </c>
+      <c r="M596" t="n">
+        <v>10</v>
+      </c>
+      <c r="N596" t="inlineStr"/>
+      <c r="O596" t="inlineStr"/>
+      <c r="P596" t="inlineStr"/>
+      <c r="Q596" t="inlineStr"/>
+    </row>
+    <row r="597">
+      <c r="A597" s="2" t="n">
+        <v>45723</v>
+      </c>
+      <c r="B597" t="n">
+        <v>581</v>
+      </c>
+      <c r="C597" t="n">
+        <v>599</v>
+      </c>
+      <c r="D597" t="n">
+        <v>572.0499877929688</v>
+      </c>
+      <c r="E597" t="n">
+        <v>592.9500122070312</v>
+      </c>
+      <c r="F597" t="n">
+        <v>35000</v>
+      </c>
+      <c r="G597" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H597" t="n">
+        <v>3</v>
+      </c>
+      <c r="I597" t="n">
+        <v>7</v>
+      </c>
+      <c r="J597" t="n">
+        <v>0</v>
+      </c>
+      <c r="K597" t="n">
+        <v>0</v>
+      </c>
+      <c r="L597" t="n">
+        <v>0</v>
+      </c>
+      <c r="M597" t="n">
+        <v>10</v>
+      </c>
+      <c r="N597" t="inlineStr"/>
+      <c r="O597" t="inlineStr"/>
+      <c r="P597" t="inlineStr"/>
+      <c r="Q597" t="inlineStr"/>
+    </row>
+    <row r="598">
+      <c r="A598" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B598" t="n">
+        <v>610</v>
+      </c>
+      <c r="C598" t="n">
+        <v>622.5499877929688</v>
+      </c>
+      <c r="D598" t="n">
+        <v>582</v>
+      </c>
+      <c r="E598" t="n">
+        <v>582</v>
+      </c>
+      <c r="F598" t="n">
+        <v>16000</v>
+      </c>
+      <c r="G598" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H598" t="n">
+        <v>3</v>
+      </c>
+      <c r="I598" t="n">
+        <v>10</v>
+      </c>
+      <c r="J598" t="n">
+        <v>0</v>
+      </c>
+      <c r="K598" t="n">
+        <v>0</v>
+      </c>
+      <c r="L598" t="n">
+        <v>0</v>
+      </c>
+      <c r="M598" t="n">
+        <v>11</v>
+      </c>
+      <c r="N598" t="inlineStr"/>
+      <c r="O598" t="inlineStr"/>
+      <c r="P598" t="inlineStr"/>
+      <c r="Q598" t="inlineStr"/>
+    </row>
+    <row r="599">
+      <c r="A599" s="2" t="n">
+        <v>45727</v>
+      </c>
+      <c r="B599" t="n">
+        <v>553.2999877929688</v>
+      </c>
+      <c r="C599" t="n">
+        <v>579.9000244140625</v>
+      </c>
+      <c r="D599" t="n">
+        <v>553.2999877929688</v>
+      </c>
+      <c r="E599" t="n">
+        <v>573</v>
+      </c>
+      <c r="F599" t="n">
+        <v>6500</v>
+      </c>
+      <c r="G599" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H599" t="n">
+        <v>3</v>
+      </c>
+      <c r="I599" t="n">
+        <v>11</v>
+      </c>
+      <c r="J599" t="n">
+        <v>0</v>
+      </c>
+      <c r="K599" t="n">
+        <v>0</v>
+      </c>
+      <c r="L599" t="n">
+        <v>0</v>
+      </c>
+      <c r="M599" t="n">
+        <v>11</v>
+      </c>
+      <c r="N599" t="inlineStr"/>
+      <c r="O599" t="inlineStr"/>
+      <c r="P599" t="inlineStr"/>
+      <c r="Q599" t="inlineStr"/>
+    </row>
+    <row r="600">
+      <c r="A600" s="2" t="n">
+        <v>45728</v>
+      </c>
+      <c r="B600" t="n">
+        <v>581</v>
+      </c>
+      <c r="C600" t="n">
+        <v>594</v>
+      </c>
+      <c r="D600" t="n">
+        <v>569</v>
+      </c>
+      <c r="E600" t="n">
+        <v>593</v>
+      </c>
+      <c r="F600" t="n">
+        <v>15500</v>
+      </c>
+      <c r="G600" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H600" t="n">
+        <v>3</v>
+      </c>
+      <c r="I600" t="n">
+        <v>12</v>
+      </c>
+      <c r="J600" t="n">
+        <v>0</v>
+      </c>
+      <c r="K600" t="n">
+        <v>0</v>
+      </c>
+      <c r="L600" t="n">
+        <v>0</v>
+      </c>
+      <c r="M600" t="n">
+        <v>11</v>
+      </c>
+      <c r="N600" t="inlineStr"/>
+      <c r="O600" t="inlineStr"/>
+      <c r="P600" t="inlineStr"/>
+      <c r="Q600" t="inlineStr"/>
+    </row>
+    <row r="601">
+      <c r="A601" s="2" t="n">
+        <v>45729</v>
+      </c>
+      <c r="B601" t="n">
+        <v>609</v>
+      </c>
+      <c r="C601" t="n">
+        <v>622.6500244140625</v>
+      </c>
+      <c r="D601" t="n">
+        <v>576</v>
+      </c>
+      <c r="E601" t="n">
+        <v>622.4500122070312</v>
+      </c>
+      <c r="F601" t="n">
+        <v>92500</v>
+      </c>
+      <c r="G601" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H601" t="n">
+        <v>3</v>
+      </c>
+      <c r="I601" t="n">
+        <v>13</v>
+      </c>
+      <c r="J601" t="n">
+        <v>0</v>
+      </c>
+      <c r="K601" t="n">
+        <v>0</v>
+      </c>
+      <c r="L601" t="n">
+        <v>0</v>
+      </c>
+      <c r="M601" t="n">
+        <v>11</v>
+      </c>
+      <c r="N601" t="inlineStr"/>
+      <c r="O601" t="inlineStr"/>
+      <c r="P601" t="inlineStr"/>
+      <c r="Q601" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/VOEPL.BO.xlsx
+++ b/stock_historical_data/1d/VOEPL.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q601"/>
+  <dimension ref="A1:Q611"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27714,6 +27714,456 @@
       <c r="P601" t="inlineStr"/>
       <c r="Q601" t="inlineStr"/>
     </row>
+    <row r="602">
+      <c r="A602" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B602" t="n">
+        <v>621</v>
+      </c>
+      <c r="C602" t="n">
+        <v>622</v>
+      </c>
+      <c r="D602" t="n">
+        <v>591.3499755859375</v>
+      </c>
+      <c r="E602" t="n">
+        <v>591.3499755859375</v>
+      </c>
+      <c r="F602" t="n">
+        <v>25000</v>
+      </c>
+      <c r="G602" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H602" t="n">
+        <v>3</v>
+      </c>
+      <c r="I602" t="n">
+        <v>17</v>
+      </c>
+      <c r="J602" t="n">
+        <v>0</v>
+      </c>
+      <c r="K602" t="n">
+        <v>0</v>
+      </c>
+      <c r="L602" t="n">
+        <v>0</v>
+      </c>
+      <c r="M602" t="n">
+        <v>12</v>
+      </c>
+      <c r="N602" t="inlineStr"/>
+      <c r="O602" t="inlineStr"/>
+      <c r="P602" t="inlineStr"/>
+      <c r="Q602" t="inlineStr"/>
+    </row>
+    <row r="603">
+      <c r="A603" s="2" t="n">
+        <v>45734</v>
+      </c>
+      <c r="B603" t="n">
+        <v>575.0499877929688</v>
+      </c>
+      <c r="C603" t="n">
+        <v>602</v>
+      </c>
+      <c r="D603" t="n">
+        <v>575</v>
+      </c>
+      <c r="E603" t="n">
+        <v>592.4000244140625</v>
+      </c>
+      <c r="F603" t="n">
+        <v>19000</v>
+      </c>
+      <c r="G603" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H603" t="n">
+        <v>3</v>
+      </c>
+      <c r="I603" t="n">
+        <v>18</v>
+      </c>
+      <c r="J603" t="n">
+        <v>0</v>
+      </c>
+      <c r="K603" t="n">
+        <v>0</v>
+      </c>
+      <c r="L603" t="n">
+        <v>0</v>
+      </c>
+      <c r="M603" t="n">
+        <v>12</v>
+      </c>
+      <c r="N603" t="inlineStr"/>
+      <c r="O603" t="inlineStr"/>
+      <c r="P603" t="inlineStr"/>
+      <c r="Q603" t="inlineStr"/>
+    </row>
+    <row r="604">
+      <c r="A604" s="2" t="n">
+        <v>45735</v>
+      </c>
+      <c r="B604" t="n">
+        <v>598.9500122070312</v>
+      </c>
+      <c r="C604" t="n">
+        <v>611.4500122070312</v>
+      </c>
+      <c r="D604" t="n">
+        <v>590.25</v>
+      </c>
+      <c r="E604" t="n">
+        <v>602.2000122070312</v>
+      </c>
+      <c r="F604" t="n">
+        <v>21000</v>
+      </c>
+      <c r="G604" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H604" t="n">
+        <v>3</v>
+      </c>
+      <c r="I604" t="n">
+        <v>19</v>
+      </c>
+      <c r="J604" t="n">
+        <v>0</v>
+      </c>
+      <c r="K604" t="n">
+        <v>0</v>
+      </c>
+      <c r="L604" t="n">
+        <v>0</v>
+      </c>
+      <c r="M604" t="n">
+        <v>12</v>
+      </c>
+      <c r="N604" t="inlineStr"/>
+      <c r="O604" t="inlineStr"/>
+      <c r="P604" t="inlineStr"/>
+      <c r="Q604" t="inlineStr"/>
+    </row>
+    <row r="605">
+      <c r="A605" s="2" t="n">
+        <v>45736</v>
+      </c>
+      <c r="B605" t="n">
+        <v>602</v>
+      </c>
+      <c r="C605" t="n">
+        <v>615</v>
+      </c>
+      <c r="D605" t="n">
+        <v>581.0999755859375</v>
+      </c>
+      <c r="E605" t="n">
+        <v>596.5499877929688</v>
+      </c>
+      <c r="F605" t="n">
+        <v>27000</v>
+      </c>
+      <c r="G605" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H605" t="n">
+        <v>3</v>
+      </c>
+      <c r="I605" t="n">
+        <v>20</v>
+      </c>
+      <c r="J605" t="n">
+        <v>0</v>
+      </c>
+      <c r="K605" t="n">
+        <v>0</v>
+      </c>
+      <c r="L605" t="n">
+        <v>0</v>
+      </c>
+      <c r="M605" t="n">
+        <v>12</v>
+      </c>
+      <c r="N605" t="inlineStr"/>
+      <c r="O605" t="inlineStr"/>
+      <c r="P605" t="inlineStr"/>
+      <c r="Q605" t="inlineStr"/>
+    </row>
+    <row r="606">
+      <c r="A606" s="2" t="n">
+        <v>45737</v>
+      </c>
+      <c r="B606" t="n">
+        <v>592</v>
+      </c>
+      <c r="C606" t="n">
+        <v>610</v>
+      </c>
+      <c r="D606" t="n">
+        <v>574.0499877929688</v>
+      </c>
+      <c r="E606" t="n">
+        <v>596.4000244140625</v>
+      </c>
+      <c r="F606" t="n">
+        <v>38000</v>
+      </c>
+      <c r="G606" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H606" t="n">
+        <v>3</v>
+      </c>
+      <c r="I606" t="n">
+        <v>21</v>
+      </c>
+      <c r="J606" t="n">
+        <v>0</v>
+      </c>
+      <c r="K606" t="n">
+        <v>0</v>
+      </c>
+      <c r="L606" t="n">
+        <v>0</v>
+      </c>
+      <c r="M606" t="n">
+        <v>12</v>
+      </c>
+      <c r="N606" t="inlineStr"/>
+      <c r="O606" t="inlineStr"/>
+      <c r="P606" t="inlineStr"/>
+      <c r="Q606" t="inlineStr"/>
+    </row>
+    <row r="607">
+      <c r="A607" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B607" t="n">
+        <v>609.9500122070312</v>
+      </c>
+      <c r="C607" t="n">
+        <v>618</v>
+      </c>
+      <c r="D607" t="n">
+        <v>575.5</v>
+      </c>
+      <c r="E607" t="n">
+        <v>609.0999755859375</v>
+      </c>
+      <c r="F607" t="n">
+        <v>41500</v>
+      </c>
+      <c r="G607" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H607" t="n">
+        <v>3</v>
+      </c>
+      <c r="I607" t="n">
+        <v>24</v>
+      </c>
+      <c r="J607" t="n">
+        <v>0</v>
+      </c>
+      <c r="K607" t="n">
+        <v>0</v>
+      </c>
+      <c r="L607" t="n">
+        <v>0</v>
+      </c>
+      <c r="M607" t="n">
+        <v>13</v>
+      </c>
+      <c r="N607" t="inlineStr"/>
+      <c r="O607" t="inlineStr"/>
+      <c r="P607" t="inlineStr"/>
+      <c r="Q607" t="inlineStr"/>
+    </row>
+    <row r="608">
+      <c r="A608" s="2" t="n">
+        <v>45741</v>
+      </c>
+      <c r="B608" t="n">
+        <v>605</v>
+      </c>
+      <c r="C608" t="n">
+        <v>605</v>
+      </c>
+      <c r="D608" t="n">
+        <v>580.0499877929688</v>
+      </c>
+      <c r="E608" t="n">
+        <v>581.6500244140625</v>
+      </c>
+      <c r="F608" t="n">
+        <v>20500</v>
+      </c>
+      <c r="G608" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H608" t="n">
+        <v>3</v>
+      </c>
+      <c r="I608" t="n">
+        <v>25</v>
+      </c>
+      <c r="J608" t="n">
+        <v>0</v>
+      </c>
+      <c r="K608" t="n">
+        <v>0</v>
+      </c>
+      <c r="L608" t="n">
+        <v>0</v>
+      </c>
+      <c r="M608" t="n">
+        <v>13</v>
+      </c>
+      <c r="N608" t="inlineStr"/>
+      <c r="O608" t="inlineStr"/>
+      <c r="P608" t="inlineStr"/>
+      <c r="Q608" t="inlineStr"/>
+    </row>
+    <row r="609">
+      <c r="A609" s="2" t="n">
+        <v>45742</v>
+      </c>
+      <c r="B609" t="n">
+        <v>566</v>
+      </c>
+      <c r="C609" t="n">
+        <v>579.7999877929688</v>
+      </c>
+      <c r="D609" t="n">
+        <v>565</v>
+      </c>
+      <c r="E609" t="n">
+        <v>578.5999755859375</v>
+      </c>
+      <c r="F609" t="n">
+        <v>9500</v>
+      </c>
+      <c r="G609" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H609" t="n">
+        <v>3</v>
+      </c>
+      <c r="I609" t="n">
+        <v>26</v>
+      </c>
+      <c r="J609" t="n">
+        <v>0</v>
+      </c>
+      <c r="K609" t="n">
+        <v>0</v>
+      </c>
+      <c r="L609" t="n">
+        <v>0</v>
+      </c>
+      <c r="M609" t="n">
+        <v>13</v>
+      </c>
+      <c r="N609" t="inlineStr"/>
+      <c r="O609" t="inlineStr"/>
+      <c r="P609" t="inlineStr"/>
+      <c r="Q609" t="inlineStr"/>
+    </row>
+    <row r="610">
+      <c r="A610" s="2" t="n">
+        <v>45743</v>
+      </c>
+      <c r="B610" t="n">
+        <v>575</v>
+      </c>
+      <c r="C610" t="n">
+        <v>580</v>
+      </c>
+      <c r="D610" t="n">
+        <v>558.0999755859375</v>
+      </c>
+      <c r="E610" t="n">
+        <v>563.3499755859375</v>
+      </c>
+      <c r="F610" t="n">
+        <v>18500</v>
+      </c>
+      <c r="G610" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H610" t="n">
+        <v>3</v>
+      </c>
+      <c r="I610" t="n">
+        <v>27</v>
+      </c>
+      <c r="J610" t="n">
+        <v>0</v>
+      </c>
+      <c r="K610" t="n">
+        <v>0</v>
+      </c>
+      <c r="L610" t="n">
+        <v>0</v>
+      </c>
+      <c r="M610" t="n">
+        <v>13</v>
+      </c>
+      <c r="N610" t="inlineStr"/>
+      <c r="O610" t="inlineStr"/>
+      <c r="P610" t="inlineStr"/>
+      <c r="Q610" t="inlineStr"/>
+    </row>
+    <row r="611">
+      <c r="A611" s="2" t="n">
+        <v>45744</v>
+      </c>
+      <c r="B611" t="n">
+        <v>560</v>
+      </c>
+      <c r="C611" t="n">
+        <v>565</v>
+      </c>
+      <c r="D611" t="n">
+        <v>541.5999755859375</v>
+      </c>
+      <c r="E611" t="n">
+        <v>557.5</v>
+      </c>
+      <c r="F611" t="n">
+        <v>27500</v>
+      </c>
+      <c r="G611" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H611" t="n">
+        <v>3</v>
+      </c>
+      <c r="I611" t="n">
+        <v>28</v>
+      </c>
+      <c r="J611" t="n">
+        <v>0</v>
+      </c>
+      <c r="K611" t="n">
+        <v>0</v>
+      </c>
+      <c r="L611" t="n">
+        <v>0</v>
+      </c>
+      <c r="M611" t="n">
+        <v>13</v>
+      </c>
+      <c r="N611" t="inlineStr"/>
+      <c r="O611" t="inlineStr"/>
+      <c r="P611" t="inlineStr"/>
+      <c r="Q611" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/VOEPL.BO.xlsx
+++ b/stock_historical_data/1d/VOEPL.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q611"/>
+  <dimension ref="A1:Q615"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28164,6 +28164,186 @@
       <c r="P611" t="inlineStr"/>
       <c r="Q611" t="inlineStr"/>
     </row>
+    <row r="612">
+      <c r="A612" s="2" t="n">
+        <v>45748</v>
+      </c>
+      <c r="B612" t="n">
+        <v>545</v>
+      </c>
+      <c r="C612" t="n">
+        <v>585.3499755859375</v>
+      </c>
+      <c r="D612" t="n">
+        <v>531</v>
+      </c>
+      <c r="E612" t="n">
+        <v>572.4000244140625</v>
+      </c>
+      <c r="F612" t="n">
+        <v>61000</v>
+      </c>
+      <c r="G612" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H612" t="n">
+        <v>4</v>
+      </c>
+      <c r="I612" t="n">
+        <v>1</v>
+      </c>
+      <c r="J612" t="n">
+        <v>0</v>
+      </c>
+      <c r="K612" t="n">
+        <v>0</v>
+      </c>
+      <c r="L612" t="n">
+        <v>0</v>
+      </c>
+      <c r="M612" t="n">
+        <v>14</v>
+      </c>
+      <c r="N612" t="inlineStr"/>
+      <c r="O612" t="inlineStr"/>
+      <c r="P612" t="inlineStr"/>
+      <c r="Q612" t="inlineStr"/>
+    </row>
+    <row r="613">
+      <c r="A613" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B613" t="n">
+        <v>575</v>
+      </c>
+      <c r="C613" t="n">
+        <v>575</v>
+      </c>
+      <c r="D613" t="n">
+        <v>545.3499755859375</v>
+      </c>
+      <c r="E613" t="n">
+        <v>568.3499755859375</v>
+      </c>
+      <c r="F613" t="n">
+        <v>12000</v>
+      </c>
+      <c r="G613" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H613" t="n">
+        <v>4</v>
+      </c>
+      <c r="I613" t="n">
+        <v>2</v>
+      </c>
+      <c r="J613" t="n">
+        <v>0</v>
+      </c>
+      <c r="K613" t="n">
+        <v>0</v>
+      </c>
+      <c r="L613" t="n">
+        <v>0</v>
+      </c>
+      <c r="M613" t="n">
+        <v>14</v>
+      </c>
+      <c r="N613" t="inlineStr"/>
+      <c r="O613" t="inlineStr"/>
+      <c r="P613" t="inlineStr"/>
+      <c r="Q613" t="inlineStr"/>
+    </row>
+    <row r="614">
+      <c r="A614" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B614" t="n">
+        <v>568.3499755859375</v>
+      </c>
+      <c r="C614" t="n">
+        <v>579</v>
+      </c>
+      <c r="D614" t="n">
+        <v>555.7999877929688</v>
+      </c>
+      <c r="E614" t="n">
+        <v>572.5</v>
+      </c>
+      <c r="F614" t="n">
+        <v>8500</v>
+      </c>
+      <c r="G614" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H614" t="n">
+        <v>4</v>
+      </c>
+      <c r="I614" t="n">
+        <v>3</v>
+      </c>
+      <c r="J614" t="n">
+        <v>0</v>
+      </c>
+      <c r="K614" t="n">
+        <v>0</v>
+      </c>
+      <c r="L614" t="n">
+        <v>0</v>
+      </c>
+      <c r="M614" t="n">
+        <v>14</v>
+      </c>
+      <c r="N614" t="inlineStr"/>
+      <c r="O614" t="inlineStr"/>
+      <c r="P614" t="inlineStr"/>
+      <c r="Q614" t="inlineStr"/>
+    </row>
+    <row r="615">
+      <c r="A615" s="2" t="n">
+        <v>45751</v>
+      </c>
+      <c r="B615" t="n">
+        <v>561</v>
+      </c>
+      <c r="C615" t="n">
+        <v>565</v>
+      </c>
+      <c r="D615" t="n">
+        <v>545.25</v>
+      </c>
+      <c r="E615" t="n">
+        <v>554.3499755859375</v>
+      </c>
+      <c r="F615" t="n">
+        <v>14500</v>
+      </c>
+      <c r="G615" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H615" t="n">
+        <v>4</v>
+      </c>
+      <c r="I615" t="n">
+        <v>4</v>
+      </c>
+      <c r="J615" t="n">
+        <v>0</v>
+      </c>
+      <c r="K615" t="n">
+        <v>0</v>
+      </c>
+      <c r="L615" t="n">
+        <v>0</v>
+      </c>
+      <c r="M615" t="n">
+        <v>14</v>
+      </c>
+      <c r="N615" t="inlineStr"/>
+      <c r="O615" t="inlineStr"/>
+      <c r="P615" t="inlineStr"/>
+      <c r="Q615" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/VOEPL.BO.xlsx
+++ b/stock_historical_data/1d/VOEPL.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q615"/>
+  <dimension ref="A1:Q619"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28344,6 +28344,186 @@
       <c r="P615" t="inlineStr"/>
       <c r="Q615" t="inlineStr"/>
     </row>
+    <row r="616">
+      <c r="A616" s="2" t="n">
+        <v>45754</v>
+      </c>
+      <c r="B616" t="n">
+        <v>540</v>
+      </c>
+      <c r="C616" t="n">
+        <v>540</v>
+      </c>
+      <c r="D616" t="n">
+        <v>526.6500244140625</v>
+      </c>
+      <c r="E616" t="n">
+        <v>526.6500244140625</v>
+      </c>
+      <c r="F616" t="n">
+        <v>7000</v>
+      </c>
+      <c r="G616" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H616" t="n">
+        <v>4</v>
+      </c>
+      <c r="I616" t="n">
+        <v>7</v>
+      </c>
+      <c r="J616" t="n">
+        <v>0</v>
+      </c>
+      <c r="K616" t="n">
+        <v>0</v>
+      </c>
+      <c r="L616" t="n">
+        <v>0</v>
+      </c>
+      <c r="M616" t="n">
+        <v>15</v>
+      </c>
+      <c r="N616" t="inlineStr"/>
+      <c r="O616" t="inlineStr"/>
+      <c r="P616" t="inlineStr"/>
+      <c r="Q616" t="inlineStr"/>
+    </row>
+    <row r="617">
+      <c r="A617" s="2" t="n">
+        <v>45755</v>
+      </c>
+      <c r="B617" t="n">
+        <v>526.6500244140625</v>
+      </c>
+      <c r="C617" t="n">
+        <v>552.5</v>
+      </c>
+      <c r="D617" t="n">
+        <v>501</v>
+      </c>
+      <c r="E617" t="n">
+        <v>531.5</v>
+      </c>
+      <c r="F617" t="n">
+        <v>58500</v>
+      </c>
+      <c r="G617" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H617" t="n">
+        <v>4</v>
+      </c>
+      <c r="I617" t="n">
+        <v>8</v>
+      </c>
+      <c r="J617" t="n">
+        <v>0</v>
+      </c>
+      <c r="K617" t="n">
+        <v>0</v>
+      </c>
+      <c r="L617" t="n">
+        <v>0</v>
+      </c>
+      <c r="M617" t="n">
+        <v>15</v>
+      </c>
+      <c r="N617" t="inlineStr"/>
+      <c r="O617" t="inlineStr"/>
+      <c r="P617" t="inlineStr"/>
+      <c r="Q617" t="inlineStr"/>
+    </row>
+    <row r="618">
+      <c r="A618" s="2" t="n">
+        <v>45756</v>
+      </c>
+      <c r="B618" t="n">
+        <v>528.7999877929688</v>
+      </c>
+      <c r="C618" t="n">
+        <v>528.7999877929688</v>
+      </c>
+      <c r="D618" t="n">
+        <v>510</v>
+      </c>
+      <c r="E618" t="n">
+        <v>518.5999755859375</v>
+      </c>
+      <c r="F618" t="n">
+        <v>24500</v>
+      </c>
+      <c r="G618" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H618" t="n">
+        <v>4</v>
+      </c>
+      <c r="I618" t="n">
+        <v>9</v>
+      </c>
+      <c r="J618" t="n">
+        <v>0</v>
+      </c>
+      <c r="K618" t="n">
+        <v>0</v>
+      </c>
+      <c r="L618" t="n">
+        <v>0</v>
+      </c>
+      <c r="M618" t="n">
+        <v>15</v>
+      </c>
+      <c r="N618" t="inlineStr"/>
+      <c r="O618" t="inlineStr"/>
+      <c r="P618" t="inlineStr"/>
+      <c r="Q618" t="inlineStr"/>
+    </row>
+    <row r="619">
+      <c r="A619" s="2" t="n">
+        <v>45758</v>
+      </c>
+      <c r="B619" t="n">
+        <v>525.2999877929688</v>
+      </c>
+      <c r="C619" t="n">
+        <v>544.5</v>
+      </c>
+      <c r="D619" t="n">
+        <v>525.2999877929688</v>
+      </c>
+      <c r="E619" t="n">
+        <v>544.5</v>
+      </c>
+      <c r="F619" t="n">
+        <v>35500</v>
+      </c>
+      <c r="G619" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H619" t="n">
+        <v>4</v>
+      </c>
+      <c r="I619" t="n">
+        <v>11</v>
+      </c>
+      <c r="J619" t="n">
+        <v>0</v>
+      </c>
+      <c r="K619" t="n">
+        <v>0</v>
+      </c>
+      <c r="L619" t="n">
+        <v>0</v>
+      </c>
+      <c r="M619" t="n">
+        <v>15</v>
+      </c>
+      <c r="N619" t="inlineStr"/>
+      <c r="O619" t="inlineStr"/>
+      <c r="P619" t="inlineStr"/>
+      <c r="Q619" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/VOEPL.BO.xlsx
+++ b/stock_historical_data/1d/VOEPL.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q619"/>
+  <dimension ref="A1:Q622"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28524,6 +28524,141 @@
       <c r="P619" t="inlineStr"/>
       <c r="Q619" t="inlineStr"/>
     </row>
+    <row r="620">
+      <c r="A620" s="2" t="n">
+        <v>45762</v>
+      </c>
+      <c r="B620" t="n">
+        <v>564.6500244140625</v>
+      </c>
+      <c r="C620" t="n">
+        <v>571.7000122070312</v>
+      </c>
+      <c r="D620" t="n">
+        <v>545.0499877929688</v>
+      </c>
+      <c r="E620" t="n">
+        <v>569.9500122070312</v>
+      </c>
+      <c r="F620" t="n">
+        <v>20500</v>
+      </c>
+      <c r="G620" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H620" t="n">
+        <v>4</v>
+      </c>
+      <c r="I620" t="n">
+        <v>15</v>
+      </c>
+      <c r="J620" t="n">
+        <v>0</v>
+      </c>
+      <c r="K620" t="n">
+        <v>0</v>
+      </c>
+      <c r="L620" t="n">
+        <v>0</v>
+      </c>
+      <c r="M620" t="n">
+        <v>16</v>
+      </c>
+      <c r="N620" t="inlineStr"/>
+      <c r="O620" t="inlineStr"/>
+      <c r="P620" t="inlineStr"/>
+      <c r="Q620" t="inlineStr"/>
+    </row>
+    <row r="621">
+      <c r="A621" s="2" t="n">
+        <v>45763</v>
+      </c>
+      <c r="B621" t="n">
+        <v>575</v>
+      </c>
+      <c r="C621" t="n">
+        <v>575</v>
+      </c>
+      <c r="D621" t="n">
+        <v>563.2000122070312</v>
+      </c>
+      <c r="E621" t="n">
+        <v>563.2000122070312</v>
+      </c>
+      <c r="F621" t="n">
+        <v>6000</v>
+      </c>
+      <c r="G621" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H621" t="n">
+        <v>4</v>
+      </c>
+      <c r="I621" t="n">
+        <v>16</v>
+      </c>
+      <c r="J621" t="n">
+        <v>0</v>
+      </c>
+      <c r="K621" t="n">
+        <v>0</v>
+      </c>
+      <c r="L621" t="n">
+        <v>0</v>
+      </c>
+      <c r="M621" t="n">
+        <v>16</v>
+      </c>
+      <c r="N621" t="inlineStr"/>
+      <c r="O621" t="inlineStr"/>
+      <c r="P621" t="inlineStr"/>
+      <c r="Q621" t="inlineStr"/>
+    </row>
+    <row r="622">
+      <c r="A622" s="2" t="n">
+        <v>45764</v>
+      </c>
+      <c r="B622" t="n">
+        <v>563.2000122070312</v>
+      </c>
+      <c r="C622" t="n">
+        <v>571.5</v>
+      </c>
+      <c r="D622" t="n">
+        <v>559.7000122070312</v>
+      </c>
+      <c r="E622" t="n">
+        <v>568.4000244140625</v>
+      </c>
+      <c r="F622" t="n">
+        <v>5500</v>
+      </c>
+      <c r="G622" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H622" t="n">
+        <v>4</v>
+      </c>
+      <c r="I622" t="n">
+        <v>17</v>
+      </c>
+      <c r="J622" t="n">
+        <v>0</v>
+      </c>
+      <c r="K622" t="n">
+        <v>0</v>
+      </c>
+      <c r="L622" t="n">
+        <v>0</v>
+      </c>
+      <c r="M622" t="n">
+        <v>16</v>
+      </c>
+      <c r="N622" t="inlineStr"/>
+      <c r="O622" t="inlineStr"/>
+      <c r="P622" t="inlineStr"/>
+      <c r="Q622" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/VOEPL.BO.xlsx
+++ b/stock_historical_data/1d/VOEPL.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q622"/>
+  <dimension ref="A1:Q631"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28659,6 +28659,411 @@
       <c r="P622" t="inlineStr"/>
       <c r="Q622" t="inlineStr"/>
     </row>
+    <row r="623">
+      <c r="A623" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B623" t="n">
+        <v>560</v>
+      </c>
+      <c r="C623" t="n">
+        <v>575</v>
+      </c>
+      <c r="D623" t="n">
+        <v>560</v>
+      </c>
+      <c r="E623" t="n">
+        <v>567.5999755859375</v>
+      </c>
+      <c r="F623" t="n">
+        <v>26500</v>
+      </c>
+      <c r="G623" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H623" t="n">
+        <v>4</v>
+      </c>
+      <c r="I623" t="n">
+        <v>21</v>
+      </c>
+      <c r="J623" t="n">
+        <v>0</v>
+      </c>
+      <c r="K623" t="n">
+        <v>0</v>
+      </c>
+      <c r="L623" t="n">
+        <v>0</v>
+      </c>
+      <c r="M623" t="n">
+        <v>17</v>
+      </c>
+      <c r="N623" t="inlineStr"/>
+      <c r="O623" t="inlineStr"/>
+      <c r="P623" t="inlineStr"/>
+      <c r="Q623" t="inlineStr"/>
+    </row>
+    <row r="624">
+      <c r="A624" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B624" t="n">
+        <v>567.5999755859375</v>
+      </c>
+      <c r="C624" t="n">
+        <v>575</v>
+      </c>
+      <c r="D624" t="n">
+        <v>550</v>
+      </c>
+      <c r="E624" t="n">
+        <v>555.9500122070312</v>
+      </c>
+      <c r="F624" t="n">
+        <v>16500</v>
+      </c>
+      <c r="G624" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H624" t="n">
+        <v>4</v>
+      </c>
+      <c r="I624" t="n">
+        <v>22</v>
+      </c>
+      <c r="J624" t="n">
+        <v>0</v>
+      </c>
+      <c r="K624" t="n">
+        <v>0</v>
+      </c>
+      <c r="L624" t="n">
+        <v>0</v>
+      </c>
+      <c r="M624" t="n">
+        <v>17</v>
+      </c>
+      <c r="N624" t="inlineStr"/>
+      <c r="O624" t="inlineStr"/>
+      <c r="P624" t="inlineStr"/>
+      <c r="Q624" t="inlineStr"/>
+    </row>
+    <row r="625">
+      <c r="A625" s="2" t="n">
+        <v>45770</v>
+      </c>
+      <c r="B625" t="n">
+        <v>558</v>
+      </c>
+      <c r="C625" t="n">
+        <v>575</v>
+      </c>
+      <c r="D625" t="n">
+        <v>556.0499877929688</v>
+      </c>
+      <c r="E625" t="n">
+        <v>562.9000244140625</v>
+      </c>
+      <c r="F625" t="n">
+        <v>25500</v>
+      </c>
+      <c r="G625" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H625" t="n">
+        <v>4</v>
+      </c>
+      <c r="I625" t="n">
+        <v>23</v>
+      </c>
+      <c r="J625" t="n">
+        <v>0</v>
+      </c>
+      <c r="K625" t="n">
+        <v>0</v>
+      </c>
+      <c r="L625" t="n">
+        <v>0</v>
+      </c>
+      <c r="M625" t="n">
+        <v>17</v>
+      </c>
+      <c r="N625" t="inlineStr"/>
+      <c r="O625" t="inlineStr"/>
+      <c r="P625" t="inlineStr"/>
+      <c r="Q625" t="inlineStr"/>
+    </row>
+    <row r="626">
+      <c r="A626" s="2" t="n">
+        <v>45771</v>
+      </c>
+      <c r="B626" t="n">
+        <v>562.9000244140625</v>
+      </c>
+      <c r="C626" t="n">
+        <v>591</v>
+      </c>
+      <c r="D626" t="n">
+        <v>543.2999877929688</v>
+      </c>
+      <c r="E626" t="n">
+        <v>589.4500122070312</v>
+      </c>
+      <c r="F626" t="n">
+        <v>47500</v>
+      </c>
+      <c r="G626" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H626" t="n">
+        <v>4</v>
+      </c>
+      <c r="I626" t="n">
+        <v>24</v>
+      </c>
+      <c r="J626" t="n">
+        <v>0</v>
+      </c>
+      <c r="K626" t="n">
+        <v>0</v>
+      </c>
+      <c r="L626" t="n">
+        <v>0</v>
+      </c>
+      <c r="M626" t="n">
+        <v>17</v>
+      </c>
+      <c r="N626" t="inlineStr"/>
+      <c r="O626" t="inlineStr"/>
+      <c r="P626" t="inlineStr"/>
+      <c r="Q626" t="inlineStr"/>
+    </row>
+    <row r="627">
+      <c r="A627" s="2" t="n">
+        <v>45772</v>
+      </c>
+      <c r="B627" t="n">
+        <v>593</v>
+      </c>
+      <c r="C627" t="n">
+        <v>616.2999877929688</v>
+      </c>
+      <c r="D627" t="n">
+        <v>568.2000122070312</v>
+      </c>
+      <c r="E627" t="n">
+        <v>570.7000122070312</v>
+      </c>
+      <c r="F627" t="n">
+        <v>22500</v>
+      </c>
+      <c r="G627" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H627" t="n">
+        <v>4</v>
+      </c>
+      <c r="I627" t="n">
+        <v>25</v>
+      </c>
+      <c r="J627" t="n">
+        <v>0</v>
+      </c>
+      <c r="K627" t="n">
+        <v>0</v>
+      </c>
+      <c r="L627" t="n">
+        <v>0</v>
+      </c>
+      <c r="M627" t="n">
+        <v>17</v>
+      </c>
+      <c r="N627" t="inlineStr"/>
+      <c r="O627" t="inlineStr"/>
+      <c r="P627" t="inlineStr"/>
+      <c r="Q627" t="inlineStr"/>
+    </row>
+    <row r="628">
+      <c r="A628" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B628" t="n">
+        <v>564</v>
+      </c>
+      <c r="C628" t="n">
+        <v>580</v>
+      </c>
+      <c r="D628" t="n">
+        <v>564</v>
+      </c>
+      <c r="E628" t="n">
+        <v>567.75</v>
+      </c>
+      <c r="F628" t="n">
+        <v>18000</v>
+      </c>
+      <c r="G628" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H628" t="n">
+        <v>4</v>
+      </c>
+      <c r="I628" t="n">
+        <v>28</v>
+      </c>
+      <c r="J628" t="n">
+        <v>0</v>
+      </c>
+      <c r="K628" t="n">
+        <v>0</v>
+      </c>
+      <c r="L628" t="n">
+        <v>0</v>
+      </c>
+      <c r="M628" t="n">
+        <v>18</v>
+      </c>
+      <c r="N628" t="inlineStr"/>
+      <c r="O628" t="inlineStr"/>
+      <c r="P628" t="inlineStr"/>
+      <c r="Q628" t="inlineStr"/>
+    </row>
+    <row r="629">
+      <c r="A629" s="2" t="n">
+        <v>45776</v>
+      </c>
+      <c r="B629" t="n">
+        <v>561.0999755859375</v>
+      </c>
+      <c r="C629" t="n">
+        <v>565</v>
+      </c>
+      <c r="D629" t="n">
+        <v>553</v>
+      </c>
+      <c r="E629" t="n">
+        <v>564.5</v>
+      </c>
+      <c r="F629" t="n">
+        <v>6500</v>
+      </c>
+      <c r="G629" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H629" t="n">
+        <v>4</v>
+      </c>
+      <c r="I629" t="n">
+        <v>29</v>
+      </c>
+      <c r="J629" t="n">
+        <v>0</v>
+      </c>
+      <c r="K629" t="n">
+        <v>0</v>
+      </c>
+      <c r="L629" t="n">
+        <v>0</v>
+      </c>
+      <c r="M629" t="n">
+        <v>18</v>
+      </c>
+      <c r="N629" t="inlineStr"/>
+      <c r="O629" t="inlineStr"/>
+      <c r="P629" t="inlineStr"/>
+      <c r="Q629" t="inlineStr"/>
+    </row>
+    <row r="630">
+      <c r="A630" s="2" t="n">
+        <v>45777</v>
+      </c>
+      <c r="B630" t="n">
+        <v>565</v>
+      </c>
+      <c r="C630" t="n">
+        <v>565</v>
+      </c>
+      <c r="D630" t="n">
+        <v>546.0499877929688</v>
+      </c>
+      <c r="E630" t="n">
+        <v>548.0499877929688</v>
+      </c>
+      <c r="F630" t="n">
+        <v>16500</v>
+      </c>
+      <c r="G630" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H630" t="n">
+        <v>4</v>
+      </c>
+      <c r="I630" t="n">
+        <v>30</v>
+      </c>
+      <c r="J630" t="n">
+        <v>0</v>
+      </c>
+      <c r="K630" t="n">
+        <v>0</v>
+      </c>
+      <c r="L630" t="n">
+        <v>0</v>
+      </c>
+      <c r="M630" t="n">
+        <v>18</v>
+      </c>
+      <c r="N630" t="inlineStr"/>
+      <c r="O630" t="inlineStr"/>
+      <c r="P630" t="inlineStr"/>
+      <c r="Q630" t="inlineStr"/>
+    </row>
+    <row r="631">
+      <c r="A631" s="2" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B631" t="n">
+        <v>545</v>
+      </c>
+      <c r="C631" t="n">
+        <v>569</v>
+      </c>
+      <c r="D631" t="n">
+        <v>545</v>
+      </c>
+      <c r="E631" t="n">
+        <v>552.4500122070312</v>
+      </c>
+      <c r="F631" t="n">
+        <v>21000</v>
+      </c>
+      <c r="G631" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H631" t="n">
+        <v>5</v>
+      </c>
+      <c r="I631" t="n">
+        <v>2</v>
+      </c>
+      <c r="J631" t="n">
+        <v>0</v>
+      </c>
+      <c r="K631" t="n">
+        <v>0</v>
+      </c>
+      <c r="L631" t="n">
+        <v>0</v>
+      </c>
+      <c r="M631" t="n">
+        <v>18</v>
+      </c>
+      <c r="N631" t="inlineStr"/>
+      <c r="O631" t="inlineStr"/>
+      <c r="P631" t="inlineStr"/>
+      <c r="Q631" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/VOEPL.BO.xlsx
+++ b/stock_historical_data/1d/VOEPL.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q631"/>
+  <dimension ref="A1:Q641"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29064,6 +29064,456 @@
       <c r="P631" t="inlineStr"/>
       <c r="Q631" t="inlineStr"/>
     </row>
+    <row r="632">
+      <c r="A632" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="B632" t="n">
+        <v>560.5</v>
+      </c>
+      <c r="C632" t="n">
+        <v>567.5</v>
+      </c>
+      <c r="D632" t="n">
+        <v>545.0499877929688</v>
+      </c>
+      <c r="E632" t="n">
+        <v>560</v>
+      </c>
+      <c r="F632" t="n">
+        <v>14250</v>
+      </c>
+      <c r="G632" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H632" t="n">
+        <v>5</v>
+      </c>
+      <c r="I632" t="n">
+        <v>5</v>
+      </c>
+      <c r="J632" t="n">
+        <v>0</v>
+      </c>
+      <c r="K632" t="n">
+        <v>0</v>
+      </c>
+      <c r="L632" t="n">
+        <v>0</v>
+      </c>
+      <c r="M632" t="n">
+        <v>19</v>
+      </c>
+      <c r="N632" t="inlineStr"/>
+      <c r="O632" t="inlineStr"/>
+      <c r="P632" t="inlineStr"/>
+      <c r="Q632" t="inlineStr"/>
+    </row>
+    <row r="633">
+      <c r="A633" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="B633" t="n">
+        <v>564.2999877929688</v>
+      </c>
+      <c r="C633" t="n">
+        <v>564.2999877929688</v>
+      </c>
+      <c r="D633" t="n">
+        <v>532.0999755859375</v>
+      </c>
+      <c r="E633" t="n">
+        <v>534.9000244140625</v>
+      </c>
+      <c r="F633" t="n">
+        <v>11000</v>
+      </c>
+      <c r="G633" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H633" t="n">
+        <v>5</v>
+      </c>
+      <c r="I633" t="n">
+        <v>6</v>
+      </c>
+      <c r="J633" t="n">
+        <v>0</v>
+      </c>
+      <c r="K633" t="n">
+        <v>0</v>
+      </c>
+      <c r="L633" t="n">
+        <v>0</v>
+      </c>
+      <c r="M633" t="n">
+        <v>19</v>
+      </c>
+      <c r="N633" t="inlineStr"/>
+      <c r="O633" t="inlineStr"/>
+      <c r="P633" t="inlineStr"/>
+      <c r="Q633" t="inlineStr"/>
+    </row>
+    <row r="634">
+      <c r="A634" s="2" t="n">
+        <v>45784</v>
+      </c>
+      <c r="B634" t="n">
+        <v>533.25</v>
+      </c>
+      <c r="C634" t="n">
+        <v>533.25</v>
+      </c>
+      <c r="D634" t="n">
+        <v>517.5</v>
+      </c>
+      <c r="E634" t="n">
+        <v>530</v>
+      </c>
+      <c r="F634" t="n">
+        <v>12000</v>
+      </c>
+      <c r="G634" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H634" t="n">
+        <v>5</v>
+      </c>
+      <c r="I634" t="n">
+        <v>7</v>
+      </c>
+      <c r="J634" t="n">
+        <v>0</v>
+      </c>
+      <c r="K634" t="n">
+        <v>0</v>
+      </c>
+      <c r="L634" t="n">
+        <v>0</v>
+      </c>
+      <c r="M634" t="n">
+        <v>19</v>
+      </c>
+      <c r="N634" t="inlineStr"/>
+      <c r="O634" t="inlineStr"/>
+      <c r="P634" t="inlineStr"/>
+      <c r="Q634" t="inlineStr"/>
+    </row>
+    <row r="635">
+      <c r="A635" s="2" t="n">
+        <v>45785</v>
+      </c>
+      <c r="B635" t="n">
+        <v>537.7999877929688</v>
+      </c>
+      <c r="C635" t="n">
+        <v>540.9500122070312</v>
+      </c>
+      <c r="D635" t="n">
+        <v>521</v>
+      </c>
+      <c r="E635" t="n">
+        <v>524.3499755859375</v>
+      </c>
+      <c r="F635" t="n">
+        <v>7250</v>
+      </c>
+      <c r="G635" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H635" t="n">
+        <v>5</v>
+      </c>
+      <c r="I635" t="n">
+        <v>8</v>
+      </c>
+      <c r="J635" t="n">
+        <v>0</v>
+      </c>
+      <c r="K635" t="n">
+        <v>0</v>
+      </c>
+      <c r="L635" t="n">
+        <v>0</v>
+      </c>
+      <c r="M635" t="n">
+        <v>19</v>
+      </c>
+      <c r="N635" t="inlineStr"/>
+      <c r="O635" t="inlineStr"/>
+      <c r="P635" t="inlineStr"/>
+      <c r="Q635" t="inlineStr"/>
+    </row>
+    <row r="636">
+      <c r="A636" s="2" t="n">
+        <v>45786</v>
+      </c>
+      <c r="B636" t="n">
+        <v>518.9500122070312</v>
+      </c>
+      <c r="C636" t="n">
+        <v>537.9500122070312</v>
+      </c>
+      <c r="D636" t="n">
+        <v>510</v>
+      </c>
+      <c r="E636" t="n">
+        <v>536</v>
+      </c>
+      <c r="F636" t="n">
+        <v>16500</v>
+      </c>
+      <c r="G636" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H636" t="n">
+        <v>5</v>
+      </c>
+      <c r="I636" t="n">
+        <v>9</v>
+      </c>
+      <c r="J636" t="n">
+        <v>0</v>
+      </c>
+      <c r="K636" t="n">
+        <v>0</v>
+      </c>
+      <c r="L636" t="n">
+        <v>0</v>
+      </c>
+      <c r="M636" t="n">
+        <v>19</v>
+      </c>
+      <c r="N636" t="inlineStr"/>
+      <c r="O636" t="inlineStr"/>
+      <c r="P636" t="inlineStr"/>
+      <c r="Q636" t="inlineStr"/>
+    </row>
+    <row r="637">
+      <c r="A637" s="2" t="n">
+        <v>45789</v>
+      </c>
+      <c r="B637" t="n">
+        <v>562.4000244140625</v>
+      </c>
+      <c r="C637" t="n">
+        <v>562.7999877929688</v>
+      </c>
+      <c r="D637" t="n">
+        <v>555</v>
+      </c>
+      <c r="E637" t="n">
+        <v>559.7000122070312</v>
+      </c>
+      <c r="F637" t="n">
+        <v>18000</v>
+      </c>
+      <c r="G637" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H637" t="n">
+        <v>5</v>
+      </c>
+      <c r="I637" t="n">
+        <v>12</v>
+      </c>
+      <c r="J637" t="n">
+        <v>0</v>
+      </c>
+      <c r="K637" t="n">
+        <v>0</v>
+      </c>
+      <c r="L637" t="n">
+        <v>0</v>
+      </c>
+      <c r="M637" t="n">
+        <v>20</v>
+      </c>
+      <c r="N637" t="inlineStr"/>
+      <c r="O637" t="inlineStr"/>
+      <c r="P637" t="inlineStr"/>
+      <c r="Q637" t="inlineStr"/>
+    </row>
+    <row r="638">
+      <c r="A638" s="2" t="n">
+        <v>45790</v>
+      </c>
+      <c r="B638" t="n">
+        <v>559.7000122070312</v>
+      </c>
+      <c r="C638" t="n">
+        <v>570.9500122070312</v>
+      </c>
+      <c r="D638" t="n">
+        <v>549</v>
+      </c>
+      <c r="E638" t="n">
+        <v>559.2000122070312</v>
+      </c>
+      <c r="F638" t="n">
+        <v>10750</v>
+      </c>
+      <c r="G638" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H638" t="n">
+        <v>5</v>
+      </c>
+      <c r="I638" t="n">
+        <v>13</v>
+      </c>
+      <c r="J638" t="n">
+        <v>0</v>
+      </c>
+      <c r="K638" t="n">
+        <v>0</v>
+      </c>
+      <c r="L638" t="n">
+        <v>0</v>
+      </c>
+      <c r="M638" t="n">
+        <v>20</v>
+      </c>
+      <c r="N638" t="inlineStr"/>
+      <c r="O638" t="inlineStr"/>
+      <c r="P638" t="inlineStr"/>
+      <c r="Q638" t="inlineStr"/>
+    </row>
+    <row r="639">
+      <c r="A639" s="2" t="n">
+        <v>45791</v>
+      </c>
+      <c r="B639" t="n">
+        <v>560</v>
+      </c>
+      <c r="C639" t="n">
+        <v>560</v>
+      </c>
+      <c r="D639" t="n">
+        <v>541</v>
+      </c>
+      <c r="E639" t="n">
+        <v>546.0999755859375</v>
+      </c>
+      <c r="F639" t="n">
+        <v>15750</v>
+      </c>
+      <c r="G639" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H639" t="n">
+        <v>5</v>
+      </c>
+      <c r="I639" t="n">
+        <v>14</v>
+      </c>
+      <c r="J639" t="n">
+        <v>0</v>
+      </c>
+      <c r="K639" t="n">
+        <v>0</v>
+      </c>
+      <c r="L639" t="n">
+        <v>0</v>
+      </c>
+      <c r="M639" t="n">
+        <v>20</v>
+      </c>
+      <c r="N639" t="inlineStr"/>
+      <c r="O639" t="inlineStr"/>
+      <c r="P639" t="inlineStr"/>
+      <c r="Q639" t="inlineStr"/>
+    </row>
+    <row r="640">
+      <c r="A640" s="2" t="n">
+        <v>45792</v>
+      </c>
+      <c r="B640" t="n">
+        <v>539</v>
+      </c>
+      <c r="C640" t="n">
+        <v>550</v>
+      </c>
+      <c r="D640" t="n">
+        <v>533</v>
+      </c>
+      <c r="E640" t="n">
+        <v>546.25</v>
+      </c>
+      <c r="F640" t="n">
+        <v>20500</v>
+      </c>
+      <c r="G640" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H640" t="n">
+        <v>5</v>
+      </c>
+      <c r="I640" t="n">
+        <v>15</v>
+      </c>
+      <c r="J640" t="n">
+        <v>0</v>
+      </c>
+      <c r="K640" t="n">
+        <v>0</v>
+      </c>
+      <c r="L640" t="n">
+        <v>0</v>
+      </c>
+      <c r="M640" t="n">
+        <v>20</v>
+      </c>
+      <c r="N640" t="inlineStr"/>
+      <c r="O640" t="inlineStr"/>
+      <c r="P640" t="inlineStr"/>
+      <c r="Q640" t="inlineStr"/>
+    </row>
+    <row r="641">
+      <c r="A641" s="2" t="n">
+        <v>45793</v>
+      </c>
+      <c r="B641" t="n">
+        <v>554.9500122070312</v>
+      </c>
+      <c r="C641" t="n">
+        <v>573</v>
+      </c>
+      <c r="D641" t="n">
+        <v>537</v>
+      </c>
+      <c r="E641" t="n">
+        <v>564.9000244140625</v>
+      </c>
+      <c r="F641" t="n">
+        <v>26500</v>
+      </c>
+      <c r="G641" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H641" t="n">
+        <v>5</v>
+      </c>
+      <c r="I641" t="n">
+        <v>16</v>
+      </c>
+      <c r="J641" t="n">
+        <v>0</v>
+      </c>
+      <c r="K641" t="n">
+        <v>0</v>
+      </c>
+      <c r="L641" t="n">
+        <v>0</v>
+      </c>
+      <c r="M641" t="n">
+        <v>20</v>
+      </c>
+      <c r="N641" t="inlineStr"/>
+      <c r="O641" t="inlineStr"/>
+      <c r="P641" t="inlineStr"/>
+      <c r="Q641" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
